--- a/07_calc_country_stats/02_soil_c_stats/02_combine_tile_stats/glb_total_soil_c_hist.xlsx
+++ b/07_calc_country_stats/02_soil_c_stats/02_combine_tile_stats/glb_total_soil_c_hist.xlsx
@@ -1590,313 +1590,313 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26354</v>
+        <v>21502938</v>
       </c>
       <c r="C2">
-        <v>327540</v>
+        <v>53</v>
       </c>
       <c r="D2">
-        <v>1281711</v>
+        <v>2061</v>
       </c>
       <c r="E2">
-        <v>2527402</v>
+        <v>455794</v>
       </c>
       <c r="F2">
-        <v>3413844</v>
+        <v>3138944</v>
       </c>
       <c r="G2">
-        <v>6902484</v>
+        <v>2581393</v>
       </c>
       <c r="H2">
-        <v>9533034</v>
+        <v>1902356</v>
       </c>
       <c r="I2">
-        <v>10659759</v>
+        <v>3444836</v>
       </c>
       <c r="J2">
-        <v>10423091</v>
+        <v>5871269</v>
       </c>
       <c r="K2">
-        <v>10352765</v>
+        <v>8817997</v>
       </c>
       <c r="L2">
-        <v>10571621</v>
+        <v>10905130</v>
       </c>
       <c r="M2">
-        <v>10931438</v>
+        <v>10702223</v>
       </c>
       <c r="N2">
-        <v>11040864</v>
+        <v>9548018</v>
       </c>
       <c r="O2">
-        <v>10097295</v>
+        <v>8178773</v>
       </c>
       <c r="P2">
-        <v>9654070</v>
+        <v>7233096</v>
       </c>
       <c r="Q2">
-        <v>8613924</v>
+        <v>6818795</v>
       </c>
       <c r="R2">
-        <v>7740972</v>
+        <v>7219425</v>
       </c>
       <c r="S2">
-        <v>6683885</v>
+        <v>8751948</v>
       </c>
       <c r="T2">
-        <v>5800887</v>
+        <v>10109537</v>
       </c>
       <c r="U2">
-        <v>4664353</v>
+        <v>9880132</v>
       </c>
       <c r="V2">
-        <v>3675526</v>
+        <v>7641809</v>
       </c>
       <c r="W2">
-        <v>2914120</v>
+        <v>5223930</v>
       </c>
       <c r="X2">
-        <v>2280578</v>
+        <v>3357993</v>
       </c>
       <c r="Y2">
-        <v>1769360</v>
+        <v>1978673</v>
       </c>
       <c r="Z2">
-        <v>1368102</v>
+        <v>1121566</v>
       </c>
       <c r="AA2">
-        <v>1049670</v>
+        <v>586629</v>
       </c>
       <c r="AB2">
-        <v>798280</v>
+        <v>281567</v>
       </c>
       <c r="AC2">
-        <v>601499</v>
+        <v>132615</v>
       </c>
       <c r="AD2">
-        <v>452005</v>
+        <v>64524</v>
       </c>
       <c r="AE2">
-        <v>336818</v>
+        <v>32327</v>
       </c>
       <c r="AF2">
-        <v>250524</v>
+        <v>15787</v>
       </c>
       <c r="AG2">
-        <v>190015</v>
+        <v>6911</v>
       </c>
       <c r="AH2">
-        <v>144059</v>
+        <v>2899</v>
       </c>
       <c r="AI2">
-        <v>110683</v>
+        <v>1229</v>
       </c>
       <c r="AJ2">
-        <v>85382</v>
+        <v>453</v>
       </c>
       <c r="AK2">
-        <v>64911</v>
+        <v>166</v>
       </c>
       <c r="AL2">
-        <v>49869</v>
+        <v>40</v>
       </c>
       <c r="AM2">
-        <v>37237</v>
+        <v>12</v>
       </c>
       <c r="AN2">
-        <v>27214</v>
+        <v>3</v>
       </c>
       <c r="AO2">
-        <v>19411</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>13605</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>9531</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>6076</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>4256</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>2724</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>1756</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>1111</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>736</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT2">
         <v>0</v>
       </c>
       <c r="CU2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DA2">
         <v>0</v>
@@ -1905,43 +1905,43 @@
         <v>0</v>
       </c>
       <c r="DC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL2">
         <v>0</v>
       </c>
       <c r="DM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP2">
         <v>0</v>
@@ -1950,13 +1950,13 @@
         <v>0</v>
       </c>
       <c r="DR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DU2">
         <v>0</v>
@@ -1965,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="DW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX2">
         <v>0</v>
       </c>
       <c r="DY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA2">
         <v>0</v>
       </c>
       <c r="EB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC2">
         <v>0</v>
@@ -1995,13 +1995,13 @@
         <v>0</v>
       </c>
       <c r="EG2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="EN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO2">
         <v>0</v>
@@ -2025,28 +2025,28 @@
         <v>0</v>
       </c>
       <c r="EQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER2">
         <v>0</v>
       </c>
       <c r="ES2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET2">
         <v>0</v>
       </c>
       <c r="EU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW2">
         <v>0</v>
       </c>
       <c r="EX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY2">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="FB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FE2">
         <v>0</v>
@@ -2085,13 +2085,13 @@
         <v>0</v>
       </c>
       <c r="FK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL2">
         <v>0</v>
       </c>
       <c r="FM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN2">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="FW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX2">
         <v>0</v>
@@ -2139,22 +2139,22 @@
         <v>0</v>
       </c>
       <c r="GC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GD2">
         <v>0</v>
       </c>
       <c r="GE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GF2">
         <v>0</v>
       </c>
       <c r="GG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GI2">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>

--- a/07_calc_country_stats/02_soil_c_stats/02_combine_tile_stats/glb_total_soil_c_hist.xlsx
+++ b/07_calc_country_stats/02_soil_c_stats/02_combine_tile_stats/glb_total_soil_c_hist.xlsx
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21502938</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>53</v>
@@ -1605,61 +1605,61 @@
         <v>3138944</v>
       </c>
       <c r="G2">
-        <v>2581393</v>
+        <v>3506596</v>
       </c>
       <c r="H2">
-        <v>1902356</v>
+        <v>2030114</v>
       </c>
       <c r="I2">
         <v>3444836</v>
       </c>
       <c r="J2">
-        <v>5871269</v>
+        <v>6247125</v>
       </c>
       <c r="K2">
-        <v>8817997</v>
+        <v>9946849</v>
       </c>
       <c r="L2">
-        <v>10905130</v>
+        <v>13383628</v>
       </c>
       <c r="M2">
-        <v>10702223</v>
+        <v>11321340</v>
       </c>
       <c r="N2">
-        <v>9548018</v>
+        <v>12208914</v>
       </c>
       <c r="O2">
-        <v>8178773</v>
+        <v>8840005</v>
       </c>
       <c r="P2">
-        <v>7233096</v>
+        <v>7589446</v>
       </c>
       <c r="Q2">
-        <v>6818795</v>
+        <v>7156716</v>
       </c>
       <c r="R2">
-        <v>7219425</v>
+        <v>10814592</v>
       </c>
       <c r="S2">
-        <v>8751948</v>
+        <v>12033498</v>
       </c>
       <c r="T2">
-        <v>10109537</v>
+        <v>11451924</v>
       </c>
       <c r="U2">
-        <v>9880132</v>
+        <v>10826083</v>
       </c>
       <c r="V2">
-        <v>7641809</v>
+        <v>8482591</v>
       </c>
       <c r="W2">
-        <v>5223930</v>
+        <v>6273540</v>
       </c>
       <c r="X2">
-        <v>3357993</v>
+        <v>3361745</v>
       </c>
       <c r="Y2">
-        <v>1978673</v>
+        <v>2750699</v>
       </c>
       <c r="Z2">
         <v>1121566</v>

--- a/07_calc_country_stats/02_soil_c_stats/02_combine_tile_stats/glb_total_soil_c_hist.xlsx
+++ b/07_calc_country_stats/02_soil_c_stats/02_combine_tile_stats/glb_total_soil_c_hist.xlsx
@@ -1590,235 +1590,235 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>28007</v>
       </c>
       <c r="C2">
-        <v>53</v>
+        <v>174913</v>
       </c>
       <c r="D2">
-        <v>2061</v>
+        <v>414905</v>
       </c>
       <c r="E2">
-        <v>455794</v>
+        <v>797348</v>
       </c>
       <c r="F2">
-        <v>3138944</v>
+        <v>2874412</v>
       </c>
       <c r="G2">
-        <v>3506596</v>
+        <v>6967404</v>
       </c>
       <c r="H2">
-        <v>2030114</v>
+        <v>8744037</v>
       </c>
       <c r="I2">
-        <v>3444836</v>
+        <v>10718413</v>
       </c>
       <c r="J2">
-        <v>6247125</v>
+        <v>13788854</v>
       </c>
       <c r="K2">
-        <v>9946849</v>
+        <v>16368084</v>
       </c>
       <c r="L2">
-        <v>13383628</v>
+        <v>17290468</v>
       </c>
       <c r="M2">
-        <v>11321340</v>
+        <v>17714131</v>
       </c>
       <c r="N2">
-        <v>12208914</v>
+        <v>16432515</v>
       </c>
       <c r="O2">
-        <v>8840005</v>
+        <v>13879245</v>
       </c>
       <c r="P2">
-        <v>7589446</v>
+        <v>10104320</v>
       </c>
       <c r="Q2">
-        <v>7156716</v>
+        <v>7362122</v>
       </c>
       <c r="R2">
-        <v>10814592</v>
+        <v>4957172</v>
       </c>
       <c r="S2">
-        <v>12033498</v>
+        <v>3276365</v>
       </c>
       <c r="T2">
-        <v>11451924</v>
+        <v>2102281</v>
       </c>
       <c r="U2">
-        <v>10826083</v>
+        <v>1329318</v>
       </c>
       <c r="V2">
-        <v>8482591</v>
+        <v>836489</v>
       </c>
       <c r="W2">
-        <v>6273540</v>
+        <v>522230</v>
       </c>
       <c r="X2">
-        <v>3361745</v>
+        <v>324191</v>
       </c>
       <c r="Y2">
-        <v>2750699</v>
+        <v>199128</v>
       </c>
       <c r="Z2">
-        <v>1121566</v>
+        <v>121440</v>
       </c>
       <c r="AA2">
-        <v>586629</v>
+        <v>72701</v>
       </c>
       <c r="AB2">
-        <v>281567</v>
+        <v>44743</v>
       </c>
       <c r="AC2">
-        <v>132615</v>
+        <v>26682</v>
       </c>
       <c r="AD2">
-        <v>64524</v>
+        <v>16667</v>
       </c>
       <c r="AE2">
-        <v>32327</v>
+        <v>10120</v>
       </c>
       <c r="AF2">
-        <v>15787</v>
+        <v>5934</v>
       </c>
       <c r="AG2">
-        <v>6911</v>
+        <v>3580</v>
       </c>
       <c r="AH2">
-        <v>2899</v>
+        <v>2060</v>
       </c>
       <c r="AI2">
-        <v>1229</v>
+        <v>1270</v>
       </c>
       <c r="AJ2">
-        <v>453</v>
+        <v>846</v>
       </c>
       <c r="AK2">
-        <v>166</v>
+        <v>479</v>
       </c>
       <c r="AL2">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="AM2">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="AN2">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM2">
         <v>0</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP2">
         <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY2">
         <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA2">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="CE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF2">
         <v>0</v>
